--- a/dashboard/bd-personal/subidas/personal.xlsx
+++ b/dashboard/bd-personal/subidas/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harag\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2190CD9F-D028-415E-B9A3-1E4927F26A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77077396-BD0B-4C30-A94C-B576FE2A2BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>num_empleado</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>EJECUTIVO</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>HOMBRE</t>
+  </si>
+  <si>
+    <t>CALLE ALCANFOREZ #48 COLONIA EL SNTE</t>
+  </si>
+  <si>
+    <t>MAHJ900120GGFSDSD5</t>
+  </si>
+  <si>
+    <t>MAHJ900120</t>
+  </si>
+  <si>
+    <t>JULIAN@HOTMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -965,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,13 +1104,67 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q3" s="3"/>
+      <c r="A3">
+        <v>1131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>32893</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>72000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>2206598198</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{453A98A3-3B94-44B6-8A02-9107B9145F5A}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{9780BF54-D99E-4AFF-B6A6-47174D4473F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>